--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H2">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I2">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J2">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>311.426138228454</v>
+        <v>386.1066051329822</v>
       </c>
       <c r="R2">
-        <v>2802.835244056086</v>
+        <v>3474.95944619684</v>
       </c>
       <c r="S2">
-        <v>0.09290406417686004</v>
+        <v>0.1157493779574325</v>
       </c>
       <c r="T2">
-        <v>0.1008474245488186</v>
+        <v>0.1190424448168625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H3">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I3">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J3">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>201.356080692092</v>
+        <v>177.3276550042694</v>
       </c>
       <c r="R3">
-        <v>1812.204726228828</v>
+        <v>1595.948895038424</v>
       </c>
       <c r="S3">
-        <v>0.06006817009462549</v>
+        <v>0.05316035905245649</v>
       </c>
       <c r="T3">
-        <v>0.06520403929661632</v>
+        <v>0.05467276991565288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H4">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I4">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J4">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>11.84496071396833</v>
+        <v>14.35195854062956</v>
       </c>
       <c r="R4">
-        <v>106.604646425715</v>
+        <v>129.167626865666</v>
       </c>
       <c r="S4">
-        <v>0.003533566567670831</v>
+        <v>0.004302517106581417</v>
       </c>
       <c r="T4">
-        <v>0.003835688901004717</v>
+        <v>0.004424923608852422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H5">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I5">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J5">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>49.424742608765</v>
+        <v>23.96577805575367</v>
       </c>
       <c r="R5">
-        <v>296.54845565259</v>
+        <v>143.794668334522</v>
       </c>
       <c r="S5">
-        <v>0.01474429694748711</v>
+        <v>0.007184606182181082</v>
       </c>
       <c r="T5">
-        <v>0.01066996287773767</v>
+        <v>0.004926005363575041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.314871</v>
+        <v>57.52065133333334</v>
       </c>
       <c r="H6">
-        <v>195.944613</v>
+        <v>172.561954</v>
       </c>
       <c r="I6">
-        <v>0.1781956339634425</v>
+        <v>0.1828443315107865</v>
       </c>
       <c r="J6">
-        <v>0.1880964998453822</v>
+        <v>0.1855832454108249</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>23.28231308964933</v>
+        <v>8.164059432143556</v>
       </c>
       <c r="R6">
-        <v>209.540817806844</v>
+        <v>73.47653488929201</v>
       </c>
       <c r="S6">
-        <v>0.00694553617679899</v>
+        <v>0.00244747121213494</v>
       </c>
       <c r="T6">
-        <v>0.007539384221204903</v>
+        <v>0.002517101705881995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J7">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>1158.651683441232</v>
+        <v>1631.147917672871</v>
       </c>
       <c r="R7">
-        <v>10427.86515097109</v>
+        <v>14680.33125905584</v>
       </c>
       <c r="S7">
-        <v>0.3456468071992298</v>
+        <v>0.4889954077894328</v>
       </c>
       <c r="T7">
-        <v>0.3751998431759296</v>
+        <v>0.5029073147060907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I8">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J8">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>749.1393085762028</v>
@@ -948,10 +948,10 @@
         <v>6742.253777185825</v>
       </c>
       <c r="S8">
-        <v>0.2234818400192111</v>
+        <v>0.2245815218346011</v>
       </c>
       <c r="T8">
-        <v>0.242589688611083</v>
+        <v>0.2309708604197801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I9">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J9">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>44.06882399019111</v>
+        <v>60.63135666900178</v>
       </c>
       <c r="R9">
-        <v>396.61941591172</v>
+        <v>545.6822100210161</v>
       </c>
       <c r="S9">
-        <v>0.01314652930378017</v>
+        <v>0.01817643553840536</v>
       </c>
       <c r="T9">
-        <v>0.0142705664578668</v>
+        <v>0.01869355466725374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I10">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J10">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>183.8832846627867</v>
+        <v>101.2459472367453</v>
       </c>
       <c r="R10">
-        <v>1103.29970797672</v>
+        <v>607.4756834204721</v>
       </c>
       <c r="S10">
-        <v>0.05485571820189141</v>
+        <v>0.03035212363002186</v>
       </c>
       <c r="T10">
-        <v>0.03969727949256849</v>
+        <v>0.020810427183636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>729.0061040000001</v>
       </c>
       <c r="I11">
-        <v>0.6629715554644989</v>
+        <v>0.7724450880589986</v>
       </c>
       <c r="J11">
-        <v>0.6998074324621454</v>
+        <v>0.7840159175794992</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>86.62115328270578</v>
+        <v>34.48992678566578</v>
       </c>
       <c r="R11">
-        <v>779.590379544352</v>
+        <v>310.409341070992</v>
       </c>
       <c r="S11">
-        <v>0.0258406607403863</v>
+        <v>0.01033959926653734</v>
       </c>
       <c r="T11">
-        <v>0.02805005472469744</v>
+        <v>0.01063376060273858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H12">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I12">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J12">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>1.10787788748</v>
+        <v>0.6911288146777778</v>
       </c>
       <c r="R12">
-        <v>9.97090098732</v>
+        <v>6.2201593321</v>
       </c>
       <c r="S12">
-        <v>0.0003305000631740871</v>
+        <v>0.0002071907844204264</v>
       </c>
       <c r="T12">
-        <v>0.0003587580422841199</v>
+        <v>0.0002130853569684114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H13">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I13">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J13">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.7163109383733334</v>
+        <v>0.3174155800066668</v>
       </c>
       <c r="R13">
-        <v>6.446798445360001</v>
+        <v>2.85674022006</v>
       </c>
       <c r="S13">
-        <v>0.0002136885419052558</v>
+        <v>9.51567661659535E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002319590568795039</v>
+        <v>9.786397374357757E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H14">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I14">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J14">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.04213766425555555</v>
+        <v>0.02568993112944444</v>
       </c>
       <c r="R14">
-        <v>0.3792389783</v>
+        <v>0.231209380165</v>
       </c>
       <c r="S14">
-        <v>1.257042933688934E-05</v>
+        <v>7.701483239268379E-06</v>
       </c>
       <c r="T14">
-        <v>1.364520955385667E-05</v>
+        <v>7.920590241580022E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2323533333333333</v>
+        <v>0.1029616666666667</v>
       </c>
       <c r="H15">
-        <v>0.69706</v>
+        <v>0.308885</v>
       </c>
       <c r="I15">
-        <v>0.0006339191810828563</v>
+        <v>0.000327290402255814</v>
       </c>
       <c r="J15">
-        <v>0.0006691408565655344</v>
+        <v>0.0003321930438891683</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.1758252526333333</v>
+        <v>0.04289861805083334</v>
       </c>
       <c r="R15">
-        <v>1.0549515158</v>
+        <v>0.257391708305</v>
       </c>
       <c r="S15">
-        <v>5.245186112983551E-05</v>
+        <v>1.286040769208608E-05</v>
       </c>
       <c r="T15">
-        <v>3.795768717334333E-05</v>
+        <v>8.817523975927375E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1029616666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.308885</v>
+      </c>
+      <c r="I16">
+        <v>0.000327290402255814</v>
+      </c>
+      <c r="J16">
+        <v>0.0003321930438891683</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2323533333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.69706</v>
-      </c>
-      <c r="I16">
-        <v>0.0006339191810828563</v>
-      </c>
-      <c r="J16">
-        <v>0.0006691408565655344</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.08282528880888888</v>
+        <v>0.01461362391444445</v>
       </c>
       <c r="R16">
-        <v>0.74542759928</v>
+        <v>0.13152261523</v>
       </c>
       <c r="S16">
-        <v>2.470828553678842E-05</v>
+        <v>4.380960738079617E-06</v>
       </c>
       <c r="T16">
-        <v>2.682086067471061E-05</v>
+        <v>4.505598959671957E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H17">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I17">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J17">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>275.976256626072</v>
+        <v>93.49461546217333</v>
       </c>
       <c r="R17">
-        <v>1655.857539756432</v>
+        <v>560.9676927730399</v>
       </c>
       <c r="S17">
-        <v>0.08232872167611656</v>
+        <v>0.02802838241627241</v>
       </c>
       <c r="T17">
-        <v>0.05957858873735416</v>
+        <v>0.01921719278884344</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H18">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I18">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J18">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>178.435560079856</v>
+        <v>42.93938693362401</v>
       </c>
       <c r="R18">
-        <v>1070.613360479136</v>
+        <v>257.636321601744</v>
       </c>
       <c r="S18">
-        <v>0.05323056317428364</v>
+        <v>0.01287262963483531</v>
       </c>
       <c r="T18">
-        <v>0.03852120823756714</v>
+        <v>0.008825903747067147</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H19">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I19">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J19">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>10.49663954451333</v>
+        <v>3.475285910799333</v>
       </c>
       <c r="R19">
-        <v>62.97983726708</v>
+        <v>20.851715464796</v>
       </c>
       <c r="S19">
-        <v>0.003131337913484536</v>
+        <v>0.001041842271153858</v>
       </c>
       <c r="T19">
-        <v>0.002266046283083499</v>
+        <v>0.0007143217715163777</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H20">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I20">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J20">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>43.79868538802</v>
+        <v>5.803244942683</v>
       </c>
       <c r="R20">
-        <v>175.19474155208</v>
+        <v>23.212979770732</v>
       </c>
       <c r="S20">
-        <v>0.01306594206028315</v>
+        <v>0.001739731937553412</v>
       </c>
       <c r="T20">
-        <v>0.006303595089112424</v>
+        <v>0.0007952121186382851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>57.880028</v>
+        <v>13.928462</v>
       </c>
       <c r="H21">
-        <v>115.760056</v>
+        <v>27.856924</v>
       </c>
       <c r="I21">
-        <v>0.1579114851697679</v>
+        <v>0.04427523444762439</v>
       </c>
       <c r="J21">
-        <v>0.1111235518146418</v>
+        <v>0.02995896976851976</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>20.63206912762133</v>
+        <v>1.976903754225333</v>
       </c>
       <c r="R21">
-        <v>123.792414765728</v>
+        <v>11.861422525352</v>
       </c>
       <c r="S21">
-        <v>0.006154920345599986</v>
+        <v>0.0005926481878093842</v>
       </c>
       <c r="T21">
-        <v>0.004454113467524601</v>
+        <v>0.0004063393424545082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H22">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I22">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J22">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.502289576814</v>
+        <v>0.22817755926</v>
       </c>
       <c r="R22">
-        <v>4.520606191326</v>
+        <v>2.05359803334</v>
       </c>
       <c r="S22">
-        <v>0.0001498420888662329</v>
+        <v>6.840445150917224E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001626536888893026</v>
+        <v>7.03505564151112E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H23">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I23">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J23">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.3247609887053334</v>
+        <v>0.104795388036</v>
       </c>
       <c r="R23">
-        <v>2.922848898348</v>
+        <v>0.9431584923240001</v>
       </c>
       <c r="S23">
-        <v>9.688209187723256E-05</v>
+        <v>3.141619650302789E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001051655763102176</v>
+        <v>3.230998649463812E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H24">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I24">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J24">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.01910437042388889</v>
+        <v>0.008481582099000001</v>
       </c>
       <c r="R24">
-        <v>0.171939333815</v>
+        <v>0.07633423889099999</v>
       </c>
       <c r="S24">
-        <v>5.699180120255287E-06</v>
+        <v>2.542660081445683E-06</v>
       </c>
       <c r="T24">
-        <v>6.186463878194109E-06</v>
+        <v>2.614998696104016E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1053443333333333</v>
+        <v>0.033993</v>
       </c>
       <c r="H25">
-        <v>0.316033</v>
+        <v>0.101979</v>
       </c>
       <c r="I25">
-        <v>0.0002874062212078707</v>
+        <v>0.0001080555803345765</v>
       </c>
       <c r="J25">
-        <v>0.0003033750212649923</v>
+        <v>0.0001096741972668582</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.07971563719833333</v>
+        <v>0.0141630644745</v>
       </c>
       <c r="R25">
-        <v>0.47829382319</v>
+        <v>0.084978386847</v>
       </c>
       <c r="S25">
-        <v>2.378062007351635E-05</v>
+        <v>4.245889298707435E-06</v>
       </c>
       <c r="T25">
-        <v>1.720925279094083E-05</v>
+        <v>2.911123160856298E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.033993</v>
+      </c>
+      <c r="H26">
+        <v>0.101979</v>
+      </c>
+      <c r="I26">
+        <v>0.0001080555803345765</v>
+      </c>
+      <c r="J26">
+        <v>0.0001096741972668582</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.1053443333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.316033</v>
-      </c>
-      <c r="I26">
-        <v>0.0002874062212078707</v>
-      </c>
-      <c r="J26">
-        <v>0.0003033750212649923</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.03755132197822222</v>
+        <v>0.004824717138</v>
       </c>
       <c r="R26">
-        <v>0.337961897804</v>
+        <v>0.043422454242</v>
       </c>
       <c r="S26">
-        <v>1.120224027063359E-05</v>
+        <v>1.446382942223226E-06</v>
       </c>
       <c r="T26">
-        <v>1.216003939633721E-05</v>
+        <v>1.487532500148555E-06</v>
       </c>
     </row>
   </sheetData>
